--- a/資料/仕様書/ブロック図.xlsx
+++ b/資料/仕様書/ブロック図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\PICもぐら叩きゲーム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861A507D-BE11-4523-A35F-EA4BE9382B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0C7EB2-09FE-48A7-99B6-DDA1A845315D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="1880" windowWidth="19200" windowHeight="8800" xr2:uid="{29D580B4-66D7-4C4E-A45B-A563742D5077}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11060" xr2:uid="{29D580B4-66D7-4C4E-A45B-A563742D5077}"/>
   </bookViews>
   <sheets>
     <sheet name="基板・ブロック図" sheetId="2" r:id="rId1"/>
@@ -285,8 +285,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1260399" y="1260399"/>
-          <a:ext cx="2520293" cy="3151841"/>
+          <a:off x="1255227" y="1255227"/>
+          <a:ext cx="2509949" cy="3138911"/>
           <a:chOff x="1262231" y="1262231"/>
           <a:chExt cx="2523957" cy="3156420"/>
         </a:xfrm>
@@ -2456,12 +2456,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>82177</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>16484</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>171824</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1454244" cy="500650"/>
+    <xdr:ext cx="748923" cy="500650"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="95" name="テキスト ボックス 94">
@@ -2475,8 +2475,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5102412" y="3937000"/>
-          <a:ext cx="1454244" cy="500650"/>
+          <a:off x="5455072" y="3937000"/>
+          <a:ext cx="748923" cy="500650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2513,8 +2513,9 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>スタート・ストップ</a:t>
+            <a:t>スタート</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2939,9 +2940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED42EAF-E360-4114-A1E1-80C2CC295503}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y35" sqref="Y35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
